--- a/src/excel_datadriven/datadrivenExcel1.xlsx
+++ b/src/excel_datadriven/datadrivenExcel1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Keval\Data\Selenium\Scripts\live\Autoblox_parent\src\excel_datadriven\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885"/>
   </bookViews>
@@ -11,8 +16,8 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>username</t>
   </si>
@@ -28,140 +33,143 @@
     <t>password</t>
   </si>
   <si>
+    <t>Telefoon: Verplicht veld</t>
+  </si>
+  <si>
+    <t>Bezoekadres: minimaal 1 karakters</t>
+  </si>
+  <si>
+    <t>Bezoekadres postcode: minimaal 1 karakters</t>
+  </si>
+  <si>
+    <t>Bezoekadres plaats: minimaal 1 karakters</t>
+  </si>
+  <si>
+    <t>Bezoekadres Land: Mandatory</t>
+  </si>
+  <si>
+    <t>being spitBedrijfsnaam: (minimaal 1 karakters)</t>
+  </si>
+  <si>
+    <t>Code: (between 1 and 16 characters)</t>
+  </si>
+  <si>
+    <t>KvK nummer: (Verplicht veld)</t>
+  </si>
+  <si>
+    <t>create company details</t>
+  </si>
+  <si>
+    <t>+3136-5403895</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test111</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Facturen mailen naar</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>RDW nummer</t>
+  </si>
+  <si>
+    <t>datail finds from table in company management</t>
+  </si>
+  <si>
+    <t>test001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create user </t>
+  </si>
+  <si>
+    <t>insertion</t>
+  </si>
+  <si>
+    <t>Date of birth</t>
+  </si>
+  <si>
+    <t>Direct number</t>
+  </si>
+  <si>
+    <t>GSM</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>   Sir/madam</t>
+  </si>
+  <si>
+    <t>test_first name</t>
+  </si>
+  <si>
+    <t>test_insertion</t>
+  </si>
+  <si>
+    <t>test_Last name</t>
+  </si>
+  <si>
+    <t>test@tst.com</t>
+  </si>
+  <si>
+    <t>08-05-1988</t>
+  </si>
+  <si>
+    <t>+31-36-5403895</t>
+  </si>
+  <si>
+    <t>username (required)</t>
+  </si>
+  <si>
+    <t>First name (required)</t>
+  </si>
+  <si>
+    <t>Last name (required)</t>
+  </si>
+  <si>
+    <t>e-mail (required)</t>
+  </si>
+  <si>
+    <t>keval@devrepublic.nl</t>
+  </si>
+  <si>
+    <t>kevalbca</t>
+  </si>
+  <si>
+    <t>hardikbca</t>
+  </si>
+  <si>
+    <t>mananBCA</t>
+  </si>
+  <si>
+    <t>AutomatedTestBCA</t>
+  </si>
+  <si>
+    <t>test@123</t>
+  </si>
+  <si>
     <t>devhero</t>
-  </si>
-  <si>
-    <t>Telefoon: Verplicht veld</t>
-  </si>
-  <si>
-    <t>Bezoekadres: minimaal 1 karakters</t>
-  </si>
-  <si>
-    <t>Bezoekadres postcode: minimaal 1 karakters</t>
-  </si>
-  <si>
-    <t>Bezoekadres plaats: minimaal 1 karakters</t>
-  </si>
-  <si>
-    <t>Bezoekadres Land: Mandatory</t>
-  </si>
-  <si>
-    <t>being spitBedrijfsnaam: (minimaal 1 karakters)</t>
-  </si>
-  <si>
-    <t>Code: (between 1 and 16 characters)</t>
-  </si>
-  <si>
-    <t>KvK nummer: (Verplicht veld)</t>
-  </si>
-  <si>
-    <t>create company details</t>
-  </si>
-  <si>
-    <t>+3136-5403895</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>12345678</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test111</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Facturen mailen naar</t>
-  </si>
-  <si>
-    <t>test@gmail.com</t>
-  </si>
-  <si>
-    <t>RDW nummer</t>
-  </si>
-  <si>
-    <t>datail finds from table in company management</t>
-  </si>
-  <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create user </t>
-  </si>
-  <si>
-    <t>insertion</t>
-  </si>
-  <si>
-    <t>Date of birth</t>
-  </si>
-  <si>
-    <t>Direct number</t>
-  </si>
-  <si>
-    <t>GSM</t>
-  </si>
-  <si>
-    <t>Function</t>
-  </si>
-  <si>
-    <t>   Sir/madam</t>
-  </si>
-  <si>
-    <t>test_first name</t>
-  </si>
-  <si>
-    <t>test_insertion</t>
-  </si>
-  <si>
-    <t>test_Last name</t>
-  </si>
-  <si>
-    <t>test@tst.com</t>
-  </si>
-  <si>
-    <t>08-05-1988</t>
-  </si>
-  <si>
-    <t>+31-36-5403895</t>
-  </si>
-  <si>
-    <t>username (required)</t>
-  </si>
-  <si>
-    <t>First name (required)</t>
-  </si>
-  <si>
-    <t>Last name (required)</t>
-  </si>
-  <si>
-    <t>e-mail (required)</t>
-  </si>
-  <si>
-    <t>keval@devrepublic.nl</t>
-  </si>
-  <si>
-    <t>kevalbca</t>
-  </si>
-  <si>
-    <t>hardikbca</t>
-  </si>
-  <si>
-    <t>mananBCA</t>
-  </si>
-  <si>
-    <t>AutomatedTestBCA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -216,6 +224,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,27 +497,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,37 +525,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -555,14 +572,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView topLeftCell="D11" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" customWidth="1"/>
     <col min="2" max="3" width="27.5703125" customWidth="1"/>
@@ -573,9 +590,9 @@
     <col min="9" max="9" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -588,7 +605,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -601,73 +618,73 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="28.5" customHeight="1">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="J3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -680,83 +697,83 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="30">
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="7" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/excel_datadriven/datadrivenExcel1.xlsx
+++ b/src/excel_datadriven/datadrivenExcel1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>username</t>
   </si>
@@ -163,13 +163,16 @@
   </si>
   <si>
     <t>devhero</t>
+  </si>
+  <si>
+    <t>kevalBCA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +182,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -206,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -223,8 +233,10 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,56 +525,57 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="8"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
+      <c r="A7" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/src/excel_datadriven/datadrivenExcel1.xlsx
+++ b/src/excel_datadriven/datadrivenExcel1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Keval\Data\Selenium\Scripts\live\Autoblox_parent\src\excel_datadriven\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885"/>
   </bookViews>
@@ -15,9 +10,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -159,20 +154,20 @@
     <t>AutomatedTestBCA</t>
   </si>
   <si>
+    <t>devhero</t>
+  </si>
+  <si>
+    <t>kevalBCA</t>
+  </si>
+  <si>
     <t>test@123</t>
-  </si>
-  <si>
-    <t>devhero</t>
-  </si>
-  <si>
-    <t>kevalBCA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -236,7 +231,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,28 +503,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" style="9" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -538,44 +532,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="8"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -585,14 +579,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView topLeftCell="D11" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.7109375" customWidth="1"/>
     <col min="2" max="3" width="27.5703125" customWidth="1"/>
@@ -603,7 +597,7 @@
     <col min="9" max="9" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -618,7 +612,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -631,7 +625,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="28.5" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -664,7 +658,7 @@
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -697,7 +691,7 @@
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -710,22 +704,22 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="30">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -757,7 +751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
